--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.155562</v>
+      </c>
+      <c r="H2">
+        <v>0.466686</v>
+      </c>
+      <c r="I2">
+        <v>0.04499457894025669</v>
+      </c>
+      <c r="J2">
+        <v>0.05066525794134161</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.4801966666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.44059</v>
-      </c>
-      <c r="I2">
-        <v>0.1184791841871053</v>
-      </c>
-      <c r="J2">
-        <v>0.1302437462722826</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.772999</v>
+        <v>2.618408666666667</v>
       </c>
       <c r="N2">
-        <v>2.318997</v>
+        <v>7.855226</v>
       </c>
       <c r="O2">
-        <v>0.001463454091077021</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="P2">
-        <v>0.001464302759660565</v>
+        <v>0.004320739451956157</v>
       </c>
       <c r="Q2">
-        <v>0.3711915431366666</v>
+        <v>0.407324889004</v>
       </c>
       <c r="R2">
-        <v>3.34072388823</v>
+        <v>3.665924001036</v>
       </c>
       <c r="S2">
-        <v>0.0001733888468060872</v>
+        <v>0.0001940057139756765</v>
       </c>
       <c r="T2">
-        <v>0.0001907162770950338</v>
+        <v>0.0002189113788306897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H3">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I3">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J3">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>236.8971606666667</v>
+        <v>348.4578143333333</v>
       </c>
       <c r="N3">
-        <v>710.691482</v>
+        <v>1045.373443</v>
       </c>
       <c r="O3">
-        <v>0.4484974999219451</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="P3">
-        <v>0.4487575871636991</v>
+        <v>0.5750039880707877</v>
       </c>
       <c r="Q3">
-        <v>113.7572268949311</v>
+        <v>54.206794513322</v>
       </c>
       <c r="R3">
-        <v>1023.81504205438</v>
+        <v>487.861150619898</v>
       </c>
       <c r="S3">
-        <v>0.05313761790070838</v>
+        <v>0.02581827959888437</v>
       </c>
       <c r="T3">
-        <v>0.05844786932031056</v>
+        <v>0.02913272537290658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H4">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I4">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J4">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.9183924999999999</v>
+        <v>3.787182</v>
       </c>
       <c r="N4">
-        <v>1.836785</v>
+        <v>7.574364</v>
       </c>
       <c r="O4">
-        <v>0.001738715394637578</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="P4">
-        <v>0.001159815792949767</v>
+        <v>0.004166252296022603</v>
       </c>
       <c r="Q4">
-        <v>0.4410090171916666</v>
+        <v>0.589141606284</v>
       </c>
       <c r="R4">
-        <v>2.64605410315</v>
+        <v>3.534849637704</v>
       </c>
       <c r="S4">
-        <v>0.0002060015814902211</v>
+        <v>0.0002806036189916739</v>
       </c>
       <c r="T4">
-        <v>0.0001510587538595357</v>
+        <v>0.0002110842472266919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H5">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I5">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J5">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>289.6131896666666</v>
+        <v>252.408376</v>
       </c>
       <c r="N5">
-        <v>868.8395689999999</v>
+        <v>757.225128</v>
       </c>
       <c r="O5">
-        <v>0.5483003305923404</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="P5">
-        <v>0.5486182942836906</v>
+        <v>0.4165090201812336</v>
       </c>
       <c r="Q5">
-        <v>139.0712883006344</v>
+        <v>39.265151787312</v>
       </c>
       <c r="R5">
-        <v>1251.64159470571</v>
+        <v>353.386366085808</v>
       </c>
       <c r="S5">
-        <v>0.06496217585810063</v>
+        <v>0.01870169000840497</v>
       </c>
       <c r="T5">
-        <v>0.07145410192101745</v>
+        <v>0.02110253694237766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>5.245687</v>
       </c>
       <c r="I6">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J6">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.772999</v>
+        <v>2.618408666666667</v>
       </c>
       <c r="N6">
-        <v>2.318997</v>
+        <v>7.855226</v>
       </c>
       <c r="O6">
-        <v>0.001463454091077021</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="P6">
-        <v>0.001464302759660565</v>
+        <v>0.004320739451956157</v>
       </c>
       <c r="Q6">
-        <v>1.351636935104333</v>
+        <v>4.578450767806889</v>
       </c>
       <c r="R6">
-        <v>12.164732415939</v>
+        <v>41.206056910262</v>
       </c>
       <c r="S6">
-        <v>0.0006313688277967242</v>
+        <v>0.002180680911207802</v>
       </c>
       <c r="T6">
-        <v>0.0006944640011702265</v>
+        <v>0.00246062786131194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J7">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>236.8971606666667</v>
+        <v>348.4578143333333</v>
       </c>
       <c r="N7">
-        <v>710.691482</v>
+        <v>1045.373443</v>
       </c>
       <c r="O7">
-        <v>0.4484974999219451</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="P7">
-        <v>0.4487575871636991</v>
+        <v>0.5750039880707877</v>
       </c>
       <c r="Q7">
-        <v>414.2294520153482</v>
+        <v>609.3002088989267</v>
       </c>
       <c r="R7">
-        <v>3728.065068138134</v>
+        <v>5483.701880090341</v>
       </c>
       <c r="S7">
-        <v>0.1934924658873887</v>
+        <v>0.2902050064802307</v>
       </c>
       <c r="T7">
-        <v>0.2128289300017714</v>
+        <v>0.3274603454211743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J8">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.9183924999999999</v>
+        <v>3.787182</v>
       </c>
       <c r="N8">
-        <v>1.836785</v>
+        <v>7.574364</v>
       </c>
       <c r="O8">
-        <v>0.001738715394637578</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="P8">
-        <v>0.001159815792949767</v>
+        <v>0.004166252296022603</v>
       </c>
       <c r="Q8">
-        <v>1.605866532715833</v>
+        <v>6.622123794678</v>
       </c>
       <c r="R8">
-        <v>9.635199196295</v>
+        <v>39.732742768068</v>
       </c>
       <c r="S8">
-        <v>0.0007501230870703623</v>
+        <v>0.003154066666447197</v>
       </c>
       <c r="T8">
-        <v>0.0005500572274951001</v>
+        <v>0.002372648615089897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J9">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>289.6131896666666</v>
+        <v>252.408376</v>
       </c>
       <c r="N9">
-        <v>868.8395689999999</v>
+        <v>757.225128</v>
       </c>
       <c r="O9">
-        <v>0.5483003305923404</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="P9">
-        <v>0.5486182942836906</v>
+        <v>0.4165090201812336</v>
       </c>
       <c r="Q9">
-        <v>506.4067146876558</v>
+        <v>441.3517788914373</v>
       </c>
       <c r="R9">
-        <v>4557.660432188903</v>
+        <v>3972.166010022936</v>
       </c>
       <c r="S9">
-        <v>0.2365497757103356</v>
+        <v>0.2102124601019098</v>
       </c>
       <c r="T9">
-        <v>0.260189126360558</v>
+        <v>0.2371986811381748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H10">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I10">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J10">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.772999</v>
+        <v>2.618408666666667</v>
       </c>
       <c r="N10">
-        <v>2.318997</v>
+        <v>7.855226</v>
       </c>
       <c r="O10">
-        <v>0.001463454091077021</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="P10">
-        <v>0.001464302759660565</v>
+        <v>0.004320739451956157</v>
       </c>
       <c r="Q10">
-        <v>0.1243335394876667</v>
+        <v>0.5603778579937778</v>
       </c>
       <c r="R10">
-        <v>1.119001855389</v>
+        <v>5.043400721944001</v>
       </c>
       <c r="S10">
-        <v>5.807796386985116E-05</v>
+        <v>0.0002669036667562327</v>
       </c>
       <c r="T10">
-        <v>6.388192351786859E-05</v>
+        <v>0.0003011676744319979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H11">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I11">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J11">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>236.8971606666667</v>
+        <v>348.4578143333333</v>
       </c>
       <c r="N11">
-        <v>710.691482</v>
+        <v>1045.373443</v>
       </c>
       <c r="O11">
-        <v>0.4484974999219451</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="P11">
-        <v>0.4487575871636991</v>
+        <v>0.5750039880707877</v>
       </c>
       <c r="Q11">
-        <v>38.10388173887044</v>
+        <v>74.57508298194355</v>
       </c>
       <c r="R11">
-        <v>342.934935649834</v>
+        <v>671.1757468374921</v>
       </c>
       <c r="S11">
-        <v>0.01779886486019903</v>
+        <v>0.03551953884793227</v>
       </c>
       <c r="T11">
-        <v>0.01957757551990135</v>
+        <v>0.04007939284513019</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H12">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I12">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J12">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.9183924999999999</v>
+        <v>3.787182</v>
       </c>
       <c r="N12">
-        <v>1.836785</v>
+        <v>7.574364</v>
       </c>
       <c r="O12">
-        <v>0.001738715394637578</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="P12">
-        <v>0.001159815792949767</v>
+        <v>0.004166252296022603</v>
       </c>
       <c r="Q12">
-        <v>0.1477194539241667</v>
+        <v>0.8105124933360001</v>
       </c>
       <c r="R12">
-        <v>0.8863167235449999</v>
+        <v>4.863074960016</v>
       </c>
       <c r="S12">
-        <v>6.900185696662257E-05</v>
+        <v>0.000386040871060821</v>
       </c>
       <c r="T12">
-        <v>5.059832284766573E-05</v>
+        <v>0.0002903994857921904</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H13">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I13">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J13">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>289.6131896666666</v>
+        <v>252.408376</v>
       </c>
       <c r="N13">
-        <v>868.8395689999999</v>
+        <v>757.225128</v>
       </c>
       <c r="O13">
-        <v>0.5483003305923404</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="P13">
-        <v>0.5486182942836906</v>
+        <v>0.4165090201812336</v>
       </c>
       <c r="Q13">
-        <v>46.58302656739477</v>
+        <v>54.01909445351468</v>
       </c>
       <c r="R13">
-        <v>419.2472391065529</v>
+        <v>486.171850081632</v>
       </c>
       <c r="S13">
-        <v>0.02175959395250578</v>
+        <v>0.02572887950304137</v>
       </c>
       <c r="T13">
-        <v>0.0239341158682637</v>
+        <v>0.0290318484562038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H14">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I14">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J14">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.772999</v>
+        <v>2.618408666666667</v>
       </c>
       <c r="N14">
-        <v>2.318997</v>
+        <v>7.855226</v>
       </c>
       <c r="O14">
-        <v>0.001463454091077021</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="P14">
-        <v>0.001464302759660565</v>
+        <v>0.004320739451956157</v>
       </c>
       <c r="Q14">
-        <v>0.8489774582095</v>
+        <v>3.039672654207667</v>
       </c>
       <c r="R14">
-        <v>5.093864749257</v>
+        <v>18.238035925246</v>
       </c>
       <c r="S14">
-        <v>0.0003965694401316423</v>
+        <v>0.001447772722589772</v>
       </c>
       <c r="T14">
-        <v>0.0002908001240170253</v>
+        <v>0.001089087932655167</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H15">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I15">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J15">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>236.8971606666667</v>
+        <v>348.4578143333333</v>
       </c>
       <c r="N15">
-        <v>710.691482</v>
+        <v>1045.373443</v>
       </c>
       <c r="O15">
-        <v>0.4484974999219451</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="P15">
-        <v>0.4487575871636991</v>
+        <v>0.5750039880707877</v>
       </c>
       <c r="Q15">
-        <v>260.1819010371736</v>
+        <v>404.5196240212588</v>
       </c>
       <c r="R15">
-        <v>1561.091406223042</v>
+        <v>2427.117744127553</v>
       </c>
       <c r="S15">
-        <v>0.1215346648240887</v>
+        <v>0.1926695878253731</v>
       </c>
       <c r="T15">
-        <v>0.08912006833275053</v>
+        <v>0.1449358174913725</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H16">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I16">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J16">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.9183924999999999</v>
+        <v>3.787182</v>
       </c>
       <c r="N16">
-        <v>1.836785</v>
+        <v>7.574364</v>
       </c>
       <c r="O16">
-        <v>0.001738715394637578</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="P16">
-        <v>0.001159815792949767</v>
+        <v>0.004166252296022603</v>
       </c>
       <c r="Q16">
-        <v>1.00866175802125</v>
+        <v>4.396484669661</v>
       </c>
       <c r="R16">
-        <v>4.034647032085</v>
+        <v>17.585938678644</v>
       </c>
       <c r="S16">
-        <v>0.0004711602467093739</v>
+        <v>0.002094011857233507</v>
       </c>
       <c r="T16">
-        <v>0.0002303311758456832</v>
+        <v>0.001050147816235678</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H17">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I17">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J17">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>289.6131896666666</v>
+        <v>252.408376</v>
       </c>
       <c r="N17">
-        <v>868.8395689999999</v>
+        <v>757.225128</v>
       </c>
       <c r="O17">
-        <v>0.5483003305923404</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="P17">
-        <v>0.5486182942836906</v>
+        <v>0.4165090201812336</v>
       </c>
       <c r="Q17">
-        <v>318.0794148855982</v>
+        <v>293.017223776948</v>
       </c>
       <c r="R17">
-        <v>1908.476489313589</v>
+        <v>1758.103342661688</v>
       </c>
       <c r="S17">
-        <v>0.1485794166368251</v>
+        <v>0.1395618515849129</v>
       </c>
       <c r="T17">
-        <v>0.1089516952441503</v>
+        <v>0.1049854898137958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1783253333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.534976</v>
+      </c>
+      <c r="I18">
+        <v>0.05157862002104791</v>
+      </c>
+      <c r="J18">
+        <v>0.05807908750729007</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G18">
-        <v>0.5651093333333334</v>
-      </c>
-      <c r="H18">
-        <v>1.695328</v>
-      </c>
-      <c r="I18">
-        <v>0.1394297325190074</v>
-      </c>
-      <c r="J18">
-        <v>0.1532746096254287</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M18">
-        <v>0.772999</v>
+        <v>2.618408666666667</v>
       </c>
       <c r="N18">
-        <v>2.318997</v>
+        <v>7.855226</v>
       </c>
       <c r="O18">
-        <v>0.001463454091077021</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="P18">
-        <v>0.001464302759660565</v>
+        <v>0.004320739451956157</v>
       </c>
       <c r="Q18">
-        <v>0.4368289495573334</v>
+        <v>0.4669285982862222</v>
       </c>
       <c r="R18">
-        <v>3.931460546016</v>
+        <v>4.202357384576</v>
       </c>
       <c r="S18">
-        <v>0.0002040490124727161</v>
+        <v>0.0002223945025988598</v>
       </c>
       <c r="T18">
-        <v>0.000224440433860411</v>
+        <v>0.0002509446047263622</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H19">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I19">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J19">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>236.8971606666667</v>
+        <v>348.4578143333333</v>
       </c>
       <c r="N19">
-        <v>710.691482</v>
+        <v>1045.373443</v>
       </c>
       <c r="O19">
-        <v>0.4484974999219451</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="P19">
-        <v>0.4487575871636991</v>
+        <v>0.5750039880707877</v>
       </c>
       <c r="Q19">
-        <v>133.8727965328995</v>
+        <v>62.13885589359644</v>
       </c>
       <c r="R19">
-        <v>1204.855168796096</v>
+        <v>559.249703042368</v>
       </c>
       <c r="S19">
-        <v>0.06253388644956034</v>
+        <v>0.02959625946930648</v>
       </c>
       <c r="T19">
-        <v>0.06878314398896525</v>
+        <v>0.03339570694020405</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H20">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I20">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J20">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.9183924999999999</v>
+        <v>3.787182</v>
       </c>
       <c r="N20">
-        <v>1.836785</v>
+        <v>7.574364</v>
       </c>
       <c r="O20">
-        <v>0.001738715394637578</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="P20">
-        <v>0.001159815792949767</v>
+        <v>0.004166252296022603</v>
       </c>
       <c r="Q20">
-        <v>0.5189921734133334</v>
+        <v>0.675350492544</v>
       </c>
       <c r="R20">
-        <v>3.11395304048</v>
+        <v>4.052102955264</v>
       </c>
       <c r="S20">
-        <v>0.0002424286224009978</v>
+        <v>0.0003216642489247369</v>
       </c>
       <c r="T20">
-        <v>0.0001777703129017825</v>
+        <v>0.0002419721316781449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H21">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I21">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J21">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>289.6131896666666</v>
+        <v>252.408376</v>
       </c>
       <c r="N21">
-        <v>868.8395689999999</v>
+        <v>757.225128</v>
       </c>
       <c r="O21">
-        <v>0.5483003305923404</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="P21">
-        <v>0.5486182942836906</v>
+        <v>0.4165090201812336</v>
       </c>
       <c r="Q21">
-        <v>163.6631165370702</v>
+        <v>45.01080778632534</v>
       </c>
       <c r="R21">
-        <v>1472.968048833632</v>
+        <v>405.0972700769281</v>
       </c>
       <c r="S21">
-        <v>0.07644936843457335</v>
+        <v>0.02143830180021784</v>
       </c>
       <c r="T21">
-        <v>0.08408925488970122</v>
+        <v>0.02419046383068151</v>
       </c>
     </row>
   </sheetData>
